--- a/Web-Scraping-Projects/The 33 Best Self-Help Books of All Time to Read at Any Age/Data.xlsx
+++ b/Web-Scraping-Projects/The 33 Best Self-Help Books of All Time to Read at Any Age/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="236">
   <si>
     <t>name</t>
   </si>
@@ -134,6 +134,105 @@
   </si>
   <si>
     <t>Marie Kondo</t>
+  </si>
+  <si>
+    <t>“When you want something- all the universe conspires to help you achieve it.” — Paulo Coelho</t>
+  </si>
+  <si>
+    <t>“Habits are the compound interest of self-improvement.” — James Clear</t>
+  </si>
+  <si>
+    <t>“Nothing in life is as important as you think it is- while you are thinking about it” — Daniel Kahneman</t>
+  </si>
+  <si>
+    <t>“Death is not the biggest fear we have; our biggest fear is taking the risk to be alive – the risk to be alive and express what we really are…” — Don Miguel Ruiz</t>
+  </si>
+  <si>
+    <t>“The main thing is to keep the main thing the main thing.” — Stephen R. Covey</t>
+  </si>
+  <si>
+    <t>“It’s not selfish to take care of yourself.” — Mike Bayer</t>
+  </si>
+  <si>
+    <t>“Who you are is defined by what you’re willing to struggle for” — Mark Manson</t>
+  </si>
+  <si>
+    <t>“You- and only you- are ultimately responsible for who you become and how happy you are.” — Rachel Hollis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“You are responsible for what you say and do. You are not responsible for whether or not people freak out about it.” ― Jen Sincero </t>
+  </si>
+  <si>
+    <t>“It’s all very well to think the meaning of life is happiness- but what happens when you’re unhappy? Happiness is a great side effect. When it comes- accept it gratefully. But it’s fleeting and unpredictable.” — Jordan Peterson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Powerful people impress and intimidate by saying less. The more you say- the more likely you are to say something foolish.” — Robert Greene </t>
+  </si>
+  <si>
+    <t>“The courage to be happy also includes the courage to be disliked. When you have gained that courage- your interpersonal relationships will all at once change into things of lightness.” — Ichiro Kishimi &amp; Fumitake Koga</t>
+  </si>
+  <si>
+    <t>“Everything can be taken from a man but one thing: the last of the human freedoms – to choose one’s attitude in any given set of circumstances- to choose one’s own way” — Viktor Frankl</t>
+  </si>
+  <si>
+    <t>“Let’s not allow ourselves to be upset by small things we should despise and forget. Remember: Life is too short to be little.” — Dale Carnegie</t>
+  </si>
+  <si>
+    <t>“Courage starts with showing up and letting ourselves be seen.”  — Brene Brown</t>
+  </si>
+  <si>
+    <t>“It seems to me that the less I fight my fear- the less it fights back. If I can relax- fear relaxes- too.” — Elizabeth Gilbert</t>
+  </si>
+  <si>
+    <t>“Spend your free time the way you like- not the way you think you’re supposed to.” — Susan Cain</t>
+  </si>
+  <si>
+    <t>“Do what you fear and fear disappears.” — David Joseph Schwartz</t>
+  </si>
+  <si>
+    <t>“It isn’t what you have or who you are or where you are or what you are doing that makes you happy or unhappy. It is what you think about it.” — Dale Carnegie</t>
+  </si>
+  <si>
+    <t>“True love cannot beging until the “in love” experience has run its course” — Gary Chapman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“If you don’t produce- you won’t thrive – no matter how skilled or talented you are.” — Cal Newport </t>
+  </si>
+  <si>
+    <t>“Your mind is for having ideas- not holding them.”  — David Allen</t>
+  </si>
+  <si>
+    <t>“What would you do if you weren’t afraid?” — Spencer Johnson</t>
+  </si>
+  <si>
+    <t>“The main reason that over 90 percent of the American public struggles financially is because they play not to lose. They don’t play to win.” — Robert T. Kiyosaki</t>
+  </si>
+  <si>
+    <t>“The starting point of all achievement is DESIRE. Keep this constantly in mind. Weak desire brings weak results- just as a small fire makes a small amount of heat.” — Napoleon Hill</t>
+  </si>
+  <si>
+    <t>“Doing something unimportant well does not make it important.” — Tim Ferriss</t>
+  </si>
+  <si>
+    <t>“Who we are cannot be separated from where we’re from” — Malcolm Gladwell</t>
+  </si>
+  <si>
+    <t>“The way to happiness: Keep your heart free from hate- your mind from worry. Live simply- expect little- give much. Scatter sunshine- forget self- think of others. Try this for a week and you will be surprised.” — Norman Vincent Peale</t>
+  </si>
+  <si>
+    <t>“Ninety-nine percent of who you are is invisible and untouchable.” — Rhonda Byrne</t>
+  </si>
+  <si>
+    <t>“Put an end once for all to this discussion of what a good man should be- and be one.” — Marcus Aurelius</t>
+  </si>
+  <si>
+    <t>“There is no good or bad without us- there is only perception. There is the event itself and the story we tell ourselves about what it means.” — Ryan Holiday</t>
+  </si>
+  <si>
+    <t>“Realize deeply that the present moment is all you have. Make the NOW the primary focus of your life.” — Eckhart Tolle</t>
+  </si>
+  <si>
+    <t>“The question of what you want to own is actually the question of how you want to live your life.” — Marie Kondo</t>
   </si>
   <si>
     <t>The Alchemist is a classic novel in which a boy named Santiago embarks on a journey seeking treasure in the Egyptian pyramids after having a recurring dream about it and on the way meets mentors- falls in love- and most importantly- learns the true importance of who he is and how to improve himself and focus on what really matters in life.</t>
@@ -1023,22 +1122,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1052,22 +1151,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1081,22 +1180,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1110,22 +1209,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1139,22 +1238,22 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1168,22 +1267,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1197,22 +1296,22 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1226,22 +1325,22 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1255,22 +1354,22 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1284,22 +1383,22 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1313,22 +1412,22 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1342,22 +1441,22 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1371,22 +1470,22 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1400,22 +1499,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1429,22 +1528,22 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1458,22 +1557,22 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1487,22 +1586,22 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1516,22 +1615,22 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1545,22 +1644,22 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1574,22 +1673,22 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1603,22 +1702,22 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1632,22 +1731,22 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1661,22 +1760,22 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1690,22 +1789,22 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1719,22 +1818,22 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1748,22 +1847,22 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1777,22 +1876,22 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="I28" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1806,22 +1905,22 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="I29" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1835,22 +1934,22 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="I30" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1864,22 +1963,22 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="I31" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1893,22 +1992,22 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1922,22 +2021,22 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="H33" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="I33" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1951,22 +2050,22 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="I34" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Scraping-Projects/The 33 Best Self-Help Books of All Time to Read at Any Age/Data.xlsx
+++ b/Web-Scraping-Projects/The 33 Best Self-Help Books of All Time to Read at Any Age/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="269">
   <si>
     <t>name</t>
   </si>
@@ -38,6 +38,105 @@
   </si>
   <si>
     <t>Key Takeaway 3</t>
+  </si>
+  <si>
+    <t>The Alchemist</t>
+  </si>
+  <si>
+    <t>Atomic Habits</t>
+  </si>
+  <si>
+    <t>Thinking Fast And Slow</t>
+  </si>
+  <si>
+    <t>The Four Agreements</t>
+  </si>
+  <si>
+    <t>The 7 Habits Of Highly Effective People</t>
+  </si>
+  <si>
+    <t>Best Self</t>
+  </si>
+  <si>
+    <t>The Subtle Art of Not Giving a Fck</t>
+  </si>
+  <si>
+    <t>Girl Wash Your Face</t>
+  </si>
+  <si>
+    <t>You Are A Badass</t>
+  </si>
+  <si>
+    <t>12 Rules For Life</t>
+  </si>
+  <si>
+    <t>The 48 Laws Of Power</t>
+  </si>
+  <si>
+    <t>The Courage To Be Disliked</t>
+  </si>
+  <si>
+    <t>Mans Search For Meaning</t>
+  </si>
+  <si>
+    <t>How To Stop Worrying And Start Living</t>
+  </si>
+  <si>
+    <t>Daring Greatly</t>
+  </si>
+  <si>
+    <t>Big Magic</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>The Magic Of Thinking Big</t>
+  </si>
+  <si>
+    <t>How To Win Friends And Influence People</t>
+  </si>
+  <si>
+    <t>The 5 Love Languages</t>
+  </si>
+  <si>
+    <t>Deep Work</t>
+  </si>
+  <si>
+    <t>Getting Things Done</t>
+  </si>
+  <si>
+    <t>Who Moved My Cheese</t>
+  </si>
+  <si>
+    <t>Rich Dad Poor Dad</t>
+  </si>
+  <si>
+    <t>Think And Grow Rich</t>
+  </si>
+  <si>
+    <t>The 4-Hour Workweek</t>
+  </si>
+  <si>
+    <t>Outliers</t>
+  </si>
+  <si>
+    <t>The Power Of Positive Thinking</t>
+  </si>
+  <si>
+    <t>The Secret</t>
+  </si>
+  <si>
+    <t>Meditations</t>
+  </si>
+  <si>
+    <t>The Obstacle Is The Way</t>
+  </si>
+  <si>
+    <t>The Power Of Now</t>
+  </si>
+  <si>
+    <t>The Life-Changing Magic Of Tidying Up</t>
   </si>
   <si>
     <t>Paulo Coelho</t>
@@ -1119,25 +1218,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1148,25 +1247,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1177,25 +1276,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1206,25 +1305,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1235,25 +1334,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1264,25 +1363,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1293,25 +1392,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1322,25 +1421,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="I9" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1351,25 +1450,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1380,25 +1479,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1409,25 +1508,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1438,25 +1537,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1467,25 +1566,25 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1496,25 +1595,25 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="H15" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1525,25 +1624,25 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="I16" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1554,25 +1653,25 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1583,25 +1682,25 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1612,25 +1711,25 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="H19" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="I19" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1638,28 +1737,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="H20" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1667,28 +1766,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="I21" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1696,28 +1795,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1725,28 +1824,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1754,28 +1853,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1783,28 +1882,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1812,28 +1911,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="H26" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1841,28 +1940,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1870,28 +1969,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="H28" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1899,28 +1998,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="H29" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1928,28 +2027,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1957,28 +2056,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1986,28 +2085,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2015,28 +2114,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2044,28 +2143,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="H34" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
